--- a/results/anova_results.xlsx
+++ b/results/anova_results.xlsx
@@ -479,14 +479,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>deg_region_1</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2600000000000049</v>
+        <v>0.2600000000000037</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8524580794194602</v>
+        <v>0.8524580794194612</v>
       </c>
     </row>
     <row r="4">
@@ -495,14 +497,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>deg_region_2</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>2.290322580645163</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1470441863640203</v>
+        <v>0.1470441863640202</v>
       </c>
     </row>
     <row r="5">
@@ -511,14 +515,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>deg_region_3</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4249999999999984</v>
+        <v>0.4250000000000029</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7398411744452623</v>
+        <v>0.7398411744452591</v>
       </c>
     </row>
     <row r="6">
@@ -527,14 +533,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>deg_region_4</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6360116166505341</v>
+        <v>0.6360116166505325</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6104038049565857</v>
+        <v>0.6104038049565864</v>
       </c>
     </row>
     <row r="7">
@@ -543,14 +551,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>deg_region_5</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>0.3337883959044358</v>
+        <v>0.3337883959044379</v>
       </c>
       <c r="D7" t="n">
-        <v>0.801385077749001</v>
+        <v>0.8013850777489997</v>
       </c>
     </row>
     <row r="8">
@@ -559,14 +569,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>6</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>deg_region_6</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9272727272727274</v>
+        <v>0.9272727272727304</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4663651459070752</v>
+        <v>0.466365145907074</v>
       </c>
     </row>
     <row r="9">
@@ -575,14 +587,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>7</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>deg_region_7</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>3.231454005934721</v>
+        <v>3.23145400593473</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07493817453242002</v>
+        <v>0.07493817453241955</v>
       </c>
     </row>
     <row r="10">
@@ -591,14 +605,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>deg_region_8</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9740259740259799</v>
+        <v>0.974025974025974</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4467820638605046</v>
+        <v>0.4467820638605071</v>
       </c>
     </row>
     <row r="11">
@@ -607,14 +623,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>deg_region_9</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>1.795774647887324</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2179508361298721</v>
+        <v>0.217950836129872</v>
       </c>
     </row>
     <row r="12">
@@ -623,14 +641,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>10</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>deg_region_10</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>0.185971844899976</v>
+        <v>0.185971844899975</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9032846446106345</v>
+        <v>0.9032846446106353</v>
       </c>
     </row>
     <row r="13">
@@ -639,8 +659,10 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>11</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>deg_region_11</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>1.154657293497364</v>
@@ -655,14 +677,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>12</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>deg_region_12</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>0.6971990915972786</v>
+        <v>0.6971990915972736</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5768256554610629</v>
+        <v>0.5768256554610653</v>
       </c>
     </row>
     <row r="15">
@@ -671,8 +695,10 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>13</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>deg_region_13</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>0.6656534954407282</v>
@@ -687,14 +713,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>14</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>deg_region_14</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1179039301310055</v>
+        <v>0.1179039301310059</v>
       </c>
       <c r="D16" t="n">
-        <v>0.947312315328259</v>
+        <v>0.9473123153282587</v>
       </c>
     </row>
     <row r="17">
@@ -703,14 +731,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>15</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>deg_region_15</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2366972477064274</v>
+        <v>0.2366972477064247</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8685989202026316</v>
+        <v>0.8685989202026334</v>
       </c>
     </row>
     <row r="18">
@@ -719,8 +749,10 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>16</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>deg_region_16</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>0.581573896353167</v>
@@ -735,14 +767,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>17</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>deg_region_17</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>0.5763642234420407</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6448887861099254</v>
+        <v>0.6448887861099253</v>
       </c>
     </row>
     <row r="20">
@@ -751,8 +785,10 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>18</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>deg_region_18</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>1.795164539959704</v>
@@ -767,14 +803,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>19</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>deg_region_19</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>0.1617647058823534</v>
+        <v>0.1617647058823529</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9194059052244153</v>
+        <v>0.9194059052244157</v>
       </c>
     </row>
     <row r="22">
@@ -783,14 +821,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>20</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>deg_region_20</t>
+        </is>
       </c>
       <c r="C22" t="n">
         <v>0.6808430560782838</v>
       </c>
       <c r="D22" t="n">
-        <v>0.585623294572883</v>
+        <v>0.5856232945728828</v>
       </c>
     </row>
     <row r="23">
@@ -799,14 +839,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>21</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>deg_region_21</t>
+        </is>
       </c>
       <c r="C23" t="n">
-        <v>1.159694497483077</v>
+        <v>1.159694497483076</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3774622863639303</v>
+        <v>0.3774622863639304</v>
       </c>
     </row>
     <row r="24">
@@ -815,14 +857,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>22</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>deg_region_22</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>2.280888477556681</v>
+        <v>2.280888477556688</v>
       </c>
       <c r="D24" t="n">
-        <v>0.14811243417375</v>
+        <v>0.1481124341737494</v>
       </c>
     </row>
     <row r="25">
@@ -831,14 +875,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>23</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>deg_region_23</t>
+        </is>
       </c>
       <c r="C25" t="n">
-        <v>1.49820359281437</v>
+        <v>1.498203592814371</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2801313684564785</v>
+        <v>0.2801313684564782</v>
       </c>
     </row>
     <row r="26">
@@ -847,14 +893,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>24</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>deg_region_24</t>
+        </is>
       </c>
       <c r="C26" t="n">
-        <v>0.829518547750592</v>
+        <v>0.8295185477505915</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5103423366878901</v>
+        <v>0.5103423366878904</v>
       </c>
     </row>
     <row r="27">
@@ -863,14 +911,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>25</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>deg_region_25</t>
+        </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4224343675417633</v>
+        <v>0.4224343675417652</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7415346645036034</v>
+        <v>0.7415346645036025</v>
       </c>
     </row>
     <row r="28">
@@ -879,14 +929,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>26</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>deg_region_26</t>
+        </is>
       </c>
       <c r="C28" t="n">
-        <v>0.1253577561534058</v>
+        <v>0.1253577561534064</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9427243407662733</v>
+        <v>0.9427243407662731</v>
       </c>
     </row>
     <row r="29">
@@ -895,14 +947,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>27</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>deg_region_27</t>
+        </is>
       </c>
       <c r="C29" t="n">
-        <v>1.715711645101665</v>
+        <v>1.715711645101663</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2329308548462508</v>
+        <v>0.2329308548462514</v>
       </c>
     </row>
     <row r="30">
@@ -911,14 +965,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>28</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>deg_region_28</t>
+        </is>
       </c>
       <c r="C30" t="n">
-        <v>0.6814917475116534</v>
+        <v>0.6814917475116555</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5852719045828589</v>
+        <v>0.5852719045828576</v>
       </c>
     </row>
     <row r="31">
@@ -927,14 +983,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>29</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>deg_region_29</t>
+        </is>
       </c>
       <c r="C31" t="n">
         <v>1.482142857142857</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2840384092772726</v>
+        <v>0.2840384092772723</v>
       </c>
     </row>
     <row r="32">
@@ -943,14 +1001,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>30</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>deg_region_30</t>
+        </is>
       </c>
       <c r="C32" t="n">
         <v>0.7027250206440953</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5738826114039564</v>
+        <v>0.5738826114039561</v>
       </c>
     </row>
     <row r="33">
@@ -959,14 +1019,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>31</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>deg_region_31</t>
+        </is>
       </c>
       <c r="C33" t="n">
-        <v>0.2183908045976991</v>
+        <v>0.2183908045977011</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8812139110457807</v>
+        <v>0.8812139110457796</v>
       </c>
     </row>
     <row r="34">
@@ -975,14 +1037,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>32</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>deg_region_32</t>
+        </is>
       </c>
       <c r="C34" t="n">
-        <v>0.9243856332703222</v>
+        <v>0.924385633270318</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4676044439996053</v>
+        <v>0.4676044439996071</v>
       </c>
     </row>
     <row r="35">
@@ -991,14 +1055,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>33</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>deg_region_33</t>
+        </is>
       </c>
       <c r="C35" t="n">
         <v>0.4474650991917707</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7251216521721868</v>
+        <v>0.725121652172187</v>
       </c>
     </row>
     <row r="36">
@@ -1007,14 +1073,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>34</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>deg_region_34</t>
+        </is>
       </c>
       <c r="C36" t="n">
-        <v>0.8389261744966443</v>
+        <v>0.8389261744966453</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5059256569148592</v>
+        <v>0.5059256569148587</v>
       </c>
     </row>
     <row r="37">
@@ -1023,14 +1091,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>35</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>deg_region_35</t>
+        </is>
       </c>
       <c r="C37" t="n">
-        <v>0.7599039615846319</v>
+        <v>0.7599039615846334</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5442905343489791</v>
+        <v>0.5442905343489786</v>
       </c>
     </row>
     <row r="38">
@@ -1039,14 +1109,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>36</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>deg_region_36</t>
+        </is>
       </c>
       <c r="C38" t="n">
-        <v>1.90574456218628</v>
+        <v>1.905744562186279</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1991854958637088</v>
+        <v>0.199185495863709</v>
       </c>
     </row>
     <row r="39">
@@ -1055,14 +1127,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>37</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>deg_region_37</t>
+        </is>
       </c>
       <c r="C39" t="n">
-        <v>2.096153846153846</v>
+        <v>2.096153846153844</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1710213569814406</v>
+        <v>0.1710213569814409</v>
       </c>
     </row>
     <row r="40">
@@ -1071,14 +1145,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>38</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>deg_region_38</t>
+        </is>
       </c>
       <c r="C40" t="n">
         <v>0.2828870779976712</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8365736292018641</v>
+        <v>0.8365736292018642</v>
       </c>
     </row>
     <row r="41">
@@ -1087,14 +1163,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>39</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>deg_region_39</t>
+        </is>
       </c>
       <c r="C41" t="n">
-        <v>0.3732413793103448</v>
+        <v>0.3732413793103477</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7744557105287601</v>
+        <v>0.7744557105287579</v>
       </c>
     </row>
     <row r="42">
@@ -1103,14 +1181,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>40</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>deg_region_40</t>
+        </is>
       </c>
       <c r="C42" t="n">
-        <v>0.9132569558101435</v>
+        <v>0.9132569558101458</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4724146730352261</v>
+        <v>0.4724146730352252</v>
       </c>
     </row>
     <row r="43">
@@ -1119,14 +1199,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>41</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>deg_region_41</t>
+        </is>
       </c>
       <c r="C43" t="n">
-        <v>2.281653746770026</v>
+        <v>2.281653746770028</v>
       </c>
       <c r="D43" t="n">
-        <v>0.148025436101953</v>
+        <v>0.1480254361019527</v>
       </c>
     </row>
     <row r="44">
@@ -1135,14 +1217,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>42</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>deg_region_42</t>
+        </is>
       </c>
       <c r="C44" t="n">
-        <v>1.034129692832771</v>
+        <v>1.034129692832763</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4229113654668233</v>
+        <v>0.4229113654668266</v>
       </c>
     </row>
     <row r="45">
@@ -1151,14 +1235,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>43</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>deg_region_43</t>
+        </is>
       </c>
       <c r="C45" t="n">
-        <v>1.633245382585747</v>
+        <v>1.633245382585749</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2496412230283033</v>
+        <v>0.249641223028303</v>
       </c>
     </row>
     <row r="46">
@@ -1167,14 +1253,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>44</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>deg_region_44</t>
+        </is>
       </c>
       <c r="C46" t="n">
-        <v>4.837499999999997</v>
+        <v>4.837499999999983</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02844965453141906</v>
+        <v>0.02844965453141928</v>
       </c>
     </row>
     <row r="47">
@@ -1183,14 +1271,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>45</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>deg_region_45</t>
+        </is>
       </c>
       <c r="C47" t="n">
-        <v>1.499999999999997</v>
+        <v>1.499999999999998</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2796982534913807</v>
+        <v>0.2796982534913799</v>
       </c>
     </row>
     <row r="48">
@@ -1199,14 +1289,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>46</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>deg_region_46</t>
+        </is>
       </c>
       <c r="C48" t="n">
-        <v>0.6460176991150443</v>
+        <v>0.6460176991150463</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6047881402059572</v>
+        <v>0.6047881402059563</v>
       </c>
     </row>
     <row r="49">
@@ -1215,14 +1307,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>47</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>deg_region_47</t>
+        </is>
       </c>
       <c r="C49" t="n">
-        <v>0.741339491916859</v>
+        <v>0.7413394919168595</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5537270960118553</v>
+        <v>0.5537270960118548</v>
       </c>
     </row>
     <row r="50">
@@ -1231,14 +1325,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>48</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>deg_region_48</t>
+        </is>
       </c>
       <c r="C50" t="n">
-        <v>0.5088607594936668</v>
+        <v>0.5088607594936709</v>
       </c>
       <c r="D50" t="n">
-        <v>0.685967332307582</v>
+        <v>0.6859673323075797</v>
       </c>
     </row>
     <row r="51">
@@ -1247,14 +1343,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>49</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>deg_region_49</t>
+        </is>
       </c>
       <c r="C51" t="n">
-        <v>2.314708299096138</v>
+        <v>2.314708299096137</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1443252868469314</v>
+        <v>0.1443252868469315</v>
       </c>
     </row>
     <row r="52">
@@ -1263,14 +1361,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>50</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>deg_region_50</t>
+        </is>
       </c>
       <c r="C52" t="n">
-        <v>0.2601156069364162</v>
+        <v>0.2601156069364147</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8523778738121613</v>
+        <v>0.8523778738121622</v>
       </c>
     </row>
     <row r="53">
@@ -1279,14 +1379,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>51</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>deg_region_51</t>
+        </is>
       </c>
       <c r="C53" t="n">
-        <v>0.7057598889659946</v>
+        <v>0.7057598889659971</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5722725506431261</v>
+        <v>0.5722725506431245</v>
       </c>
     </row>
     <row r="54">
@@ -1295,14 +1397,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>52</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>deg_region_52</t>
+        </is>
       </c>
       <c r="C54" t="n">
         <v>0.8680203045685279</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4925185810883681</v>
+        <v>0.4925185810883684</v>
       </c>
     </row>
     <row r="55">
@@ -1311,14 +1415,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>53</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>deg_region_53</t>
+        </is>
       </c>
       <c r="C55" t="n">
-        <v>0.9945092656142759</v>
+        <v>0.9945092656142784</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4384852844110481</v>
+        <v>0.4384852844110471</v>
       </c>
     </row>
     <row r="56">
@@ -1327,14 +1433,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B56" t="n">
-        <v>54</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>deg_region_54</t>
+        </is>
       </c>
       <c r="C56" t="n">
-        <v>0.8923076923076957</v>
+        <v>0.8923076923076922</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4816140400042619</v>
+        <v>0.4816140400042634</v>
       </c>
     </row>
     <row r="57">
@@ -1343,14 +1451,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B57" t="n">
-        <v>55</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>deg_region_55</t>
+        </is>
       </c>
       <c r="C57" t="n">
-        <v>0.9805352798053528</v>
+        <v>0.9805352798053513</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4441270593716204</v>
+        <v>0.4441270593716213</v>
       </c>
     </row>
     <row r="58">
@@ -1359,14 +1469,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>56</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>deg_region_56</t>
+        </is>
       </c>
       <c r="C58" t="n">
-        <v>0.1886227544910147</v>
+        <v>0.1886227544910174</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9014974935388549</v>
+        <v>0.901497493538853</v>
       </c>
     </row>
     <row r="59">
@@ -1375,14 +1487,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B59" t="n">
-        <v>57</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>deg_region_57</t>
+        </is>
       </c>
       <c r="C59" t="n">
-        <v>0.2304111714507364</v>
+        <v>0.230411171450737</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8729392649930801</v>
+        <v>0.8729392649930797</v>
       </c>
     </row>
     <row r="60">
@@ -1391,14 +1505,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>58</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>deg_region_58</t>
+        </is>
       </c>
       <c r="C60" t="n">
-        <v>0.3223661183059142</v>
+        <v>0.3223661183059153</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8092484451993482</v>
+        <v>0.8092484451993478</v>
       </c>
     </row>
     <row r="61">
@@ -1407,14 +1523,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>59</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>deg_region_59</t>
+        </is>
       </c>
       <c r="C61" t="n">
-        <v>4.215991116046641</v>
+        <v>4.215991116046648</v>
       </c>
       <c r="D61" t="n">
-        <v>0.04043363384678032</v>
+        <v>0.04043363384678016</v>
       </c>
     </row>
     <row r="62">
@@ -1423,14 +1541,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>60</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>deg_region_60</t>
+        </is>
       </c>
       <c r="C62" t="n">
-        <v>0.7384898710865545</v>
+        <v>0.7384898710865562</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5551900999152738</v>
+        <v>0.5551900999152731</v>
       </c>
     </row>
     <row r="63">
@@ -1439,14 +1559,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B63" t="n">
-        <v>61</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>deg_region_61</t>
+        </is>
       </c>
       <c r="C63" t="n">
-        <v>0.8712643678160927</v>
+        <v>0.8712643678160892</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4910470395518384</v>
+        <v>0.49104703955184</v>
       </c>
     </row>
     <row r="64">
@@ -1455,14 +1577,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>62</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>deg_region_62</t>
+        </is>
       </c>
       <c r="C64" t="n">
-        <v>1.653366583541147</v>
+        <v>1.653366583541146</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2454378800683008</v>
+        <v>0.245437880068301</v>
       </c>
     </row>
     <row r="65">
@@ -1471,14 +1595,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B65" t="n">
-        <v>63</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>deg_region_63</t>
+        </is>
       </c>
       <c r="C65" t="n">
-        <v>1.309609708101017</v>
+        <v>1.309609708101018</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3302377170253661</v>
+        <v>0.330237717025366</v>
       </c>
     </row>
     <row r="66">
@@ -1487,14 +1613,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B66" t="n">
-        <v>64</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>deg_region_64</t>
+        </is>
       </c>
       <c r="C66" t="n">
-        <v>0.3253012048192733</v>
+        <v>0.3253012048192762</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8072255039858951</v>
+        <v>0.8072255039858931</v>
       </c>
     </row>
     <row r="67">
@@ -1503,14 +1631,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>65</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>deg_region_65</t>
+        </is>
       </c>
       <c r="C67" t="n">
-        <v>2.412244897959173</v>
+        <v>2.41224489795919</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1340341164295356</v>
+        <v>0.1340341164295338</v>
       </c>
     </row>
     <row r="68">
@@ -1519,14 +1649,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B68" t="n">
-        <v>66</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>deg_region_66</t>
+        </is>
       </c>
       <c r="C68" t="n">
-        <v>1.026397195298</v>
+        <v>1.026397195298001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.425902472826779</v>
+        <v>0.4259024728267784</v>
       </c>
     </row>
     <row r="69">
@@ -1535,14 +1667,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>67</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>deg_region_67</t>
+        </is>
       </c>
       <c r="C69" t="n">
-        <v>1.06216972334473</v>
+        <v>1.062169723344732</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4122576386682985</v>
+        <v>0.4122576386682974</v>
       </c>
     </row>
     <row r="70">
@@ -1551,14 +1685,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B70" t="n">
-        <v>68</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>deg_region_68</t>
+        </is>
       </c>
       <c r="C70" t="n">
-        <v>0.7245974458634082</v>
+        <v>0.7245974458634087</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5623780649339692</v>
+        <v>0.562378064933969</v>
       </c>
     </row>
     <row r="71">
@@ -1567,14 +1703,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B71" t="n">
-        <v>69</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>deg_region_69</t>
+        </is>
       </c>
       <c r="C71" t="n">
-        <v>1.543130990415338</v>
+        <v>1.543130990415339</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2695293140682898</v>
+        <v>0.2695293140682896</v>
       </c>
     </row>
     <row r="72">
@@ -1583,14 +1721,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B72" t="n">
-        <v>70</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>deg_region_70</t>
+        </is>
       </c>
       <c r="C72" t="n">
-        <v>0.1217712177121771</v>
+        <v>0.1217712177121793</v>
       </c>
       <c r="D72" t="n">
-        <v>0.944941264418096</v>
+        <v>0.9449412644180948</v>
       </c>
     </row>
     <row r="73">
@@ -1599,14 +1739,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B73" t="n">
-        <v>71</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>deg_region_71</t>
+        </is>
       </c>
       <c r="C73" t="n">
-        <v>0.4393939393939423</v>
+        <v>0.4393939393939394</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7303871180226823</v>
+        <v>0.7303871180226844</v>
       </c>
     </row>
     <row r="74">
@@ -1615,14 +1757,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B74" t="n">
-        <v>72</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>deg_region_72</t>
+        </is>
       </c>
       <c r="C74" t="n">
-        <v>0.9573105656350054</v>
+        <v>0.9573105656350043</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4536792921731522</v>
+        <v>0.4536792921731525</v>
       </c>
     </row>
     <row r="75">
@@ -1631,14 +1775,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B75" t="n">
-        <v>73</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>deg_region_73</t>
+        </is>
       </c>
       <c r="C75" t="n">
-        <v>0.2578125</v>
+        <v>0.2578124999999986</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8539755672905529</v>
+        <v>0.8539755672905538</v>
       </c>
     </row>
     <row r="76">
@@ -1647,8 +1793,10 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B76" t="n">
-        <v>74</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>deg_region_74</t>
+        </is>
       </c>
       <c r="C76" t="n">
         <v>1.744897959183673</v>
@@ -1663,14 +1811,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B77" t="n">
-        <v>75</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>deg_region_75</t>
+        </is>
       </c>
       <c r="C77" t="n">
-        <v>3.348302300109528</v>
+        <v>3.348302300109524</v>
       </c>
       <c r="D77" t="n">
-        <v>0.06934598950955723</v>
+        <v>0.06934598950955743</v>
       </c>
     </row>
     <row r="78">
@@ -1679,14 +1829,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B78" t="n">
-        <v>76</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>deg_region_76</t>
+        </is>
       </c>
       <c r="C78" t="n">
-        <v>0.7984665936473218</v>
+        <v>0.7984665936473156</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5252074378460545</v>
+        <v>0.5252074378460576</v>
       </c>
     </row>
     <row r="79">
@@ -1695,14 +1847,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B79" t="n">
-        <v>77</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>deg_region_77</t>
+        </is>
       </c>
       <c r="C79" t="n">
-        <v>3.719524281466797</v>
+        <v>3.719524281466798</v>
       </c>
       <c r="D79" t="n">
-        <v>0.05463931546854721</v>
+        <v>0.05463931546854712</v>
       </c>
     </row>
     <row r="80">
@@ -1711,14 +1865,16 @@
           <t>nodal</t>
         </is>
       </c>
-      <c r="B80" t="n">
-        <v>78</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>deg_region_78</t>
+        </is>
       </c>
       <c r="C80" t="n">
-        <v>0.5058986814711955</v>
+        <v>0.5058986814712016</v>
       </c>
       <c r="D80" t="n">
-        <v>0.68781832147968</v>
+        <v>0.6878183214796763</v>
       </c>
     </row>
   </sheetData>
